--- a/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_3_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1166185.25723531</v>
+        <v>1165632.119358996</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16597726.15245799</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>296.6293772256141</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>109.7596020106976</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.4281869279277</v>
       </c>
       <c r="U4" t="n">
-        <v>102.5509574751998</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>419.9023013107135</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.9735834668218</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>119.8634463900533</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>313.4423583424372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>30.96465002000427</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.455696833727</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>309.2588241657139</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>207.9431960523162</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.6990987647611</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907106</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>91.39226931002285</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.9735834668218</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>99.28616603324257</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454365</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>32.67077719907279</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>32.67077719907106</v>
       </c>
       <c r="U20" t="n">
-        <v>206.8981232563552</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>179.9904867859625</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>280.9390873188491</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>89.05336748755451</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2713,25 +2713,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>126.7641785672308</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.45405731752514</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>129.2606839525045</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>129.7139627068455</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805517311</v>
       </c>
     </row>
     <row r="38">
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>101.1195220207933</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3803,7 +3803,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864831</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3907,13 +3907,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>60.78001549303731</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655126</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.30825486907042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4141,7 +4141,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>50.29424103733295</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>434.1636652482534</v>
+        <v>976.7209085440079</v>
       </c>
       <c r="C2" t="n">
-        <v>134.5380316870271</v>
+        <v>942.6188397678352</v>
       </c>
       <c r="D2" t="n">
-        <v>102.6686509018757</v>
+        <v>506.7090549422797</v>
       </c>
       <c r="E2" t="n">
-        <v>72.93431010057496</v>
+        <v>476.974714140979</v>
       </c>
       <c r="F2" t="n">
-        <v>49.10728455018675</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="G2" t="n">
-        <v>49.10728455018675</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H2" t="n">
-        <v>49.10728455018675</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>49.10728455018675</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>484.3619720031047</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>1092.064618311666</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>1132.008730489125</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="M2" t="n">
-        <v>1132.008730489125</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="N2" t="n">
-        <v>1132.008730489125</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="O2" t="n">
-        <v>1132.008730489125</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1739.711376797686</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>2286.210162756281</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>2455.364227509338</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>2455.364227509338</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="T2" t="n">
-        <v>2455.364227509338</v>
+        <v>2151.645126566211</v>
       </c>
       <c r="U2" t="n">
-        <v>2455.364227509338</v>
+        <v>1892.422823883228</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.747277443164</v>
+        <v>1529.805873817054</v>
       </c>
       <c r="W2" t="n">
-        <v>1687.891822854197</v>
+        <v>1528.990823268492</v>
       </c>
       <c r="X2" t="n">
-        <v>1268.749359433508</v>
+        <v>1513.888763888206</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.4632357331612</v>
+        <v>1403.020479028916</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>90.84293673397428</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>49.10728455018675</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>75.17095771064436</v>
+        <v>75.1709577106443</v>
       </c>
       <c r="J3" t="n">
-        <v>399.7292826768567</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>1007.431928985418</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1054.43532930258</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.43532930258</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.43532930258</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="O3" t="n">
-        <v>1054.43532930258</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="P3" t="n">
         <v>1054.43532930258</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1128.165445162068</v>
+        <v>645.9649418400265</v>
       </c>
       <c r="C4" t="n">
-        <v>955.6037336452931</v>
+        <v>473.4032303232515</v>
       </c>
       <c r="D4" t="n">
-        <v>789.7257408468158</v>
+        <v>307.5252375247741</v>
       </c>
       <c r="E4" t="n">
-        <v>619.967737097553</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="F4" t="n">
-        <v>443.2606830593092</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="G4" t="n">
-        <v>277.6694080851369</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="H4" t="n">
         <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>49.10728455018675</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>49.10728455018675</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K4" t="n">
         <v>323.8657391213223</v>
@@ -4501,37 +4501,37 @@
         <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>2063.487540453622</v>
+        <v>1939.664558674661</v>
       </c>
       <c r="P4" t="n">
-        <v>2410.994434423964</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>2455.364227509338</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>2455.364227509338</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>2455.364227509338</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>2455.364227509338</v>
+        <v>2148.009899201666</v>
       </c>
       <c r="U4" t="n">
-        <v>2351.777401776812</v>
+        <v>1869.576898454771</v>
       </c>
       <c r="V4" t="n">
-        <v>2064.821893647243</v>
+        <v>1582.621390325201</v>
       </c>
       <c r="W4" t="n">
-        <v>1792.795489233535</v>
+        <v>1310.594985911493</v>
       </c>
       <c r="X4" t="n">
-        <v>1547.403734566947</v>
+        <v>1065.203231244906</v>
       </c>
       <c r="Y4" t="n">
-        <v>1319.984063881055</v>
+        <v>837.7835605590137</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>565.2083903541807</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C5" t="n">
-        <v>531.106321578008</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4568,16 +4568,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4592,25 +4592,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2223.792002549091</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W5" t="n">
-        <v>1818.936547960124</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X5" t="n">
-        <v>1399.794084539435</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y5" t="n">
-        <v>991.5079608390885</v>
+        <v>1290.178378232929</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4750,25 +4750,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1160.715522056492</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.055244562854</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>946.912771746277</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>511.0029869207216</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2638.783402168797</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2219.640938748108</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.354815047761</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4984,28 +4984,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.30874198473</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168154</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342598</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101009</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2164785333644</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
         <v>96.73597668111518</v>
@@ -5039,10 +5039,10 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
         <v>2312.656441940405</v>
@@ -5066,25 +5066,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928797</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245814</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.89235417964</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590674</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.134188067672</v>
+        <v>1006.036133543734</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5724765508968</v>
+        <v>833.4744220269588</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6944837524195</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031568</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415475</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V13" t="n">
-        <v>1902.127631285906</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W13" t="n">
-        <v>1630.101226872197</v>
+        <v>1670.6661776152</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.70947220561</v>
+        <v>1425.274422948613</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.952806786659</v>
+        <v>1197.854752262721</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5288,13 +5288,13 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5303,25 +5303,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884174</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5413,10 +5413,10 @@
         <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
         <v>667.5964292284815</v>
@@ -5431,10 +5431,10 @@
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5464,22 +5464,22 @@
         <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2254.303395840388</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1967.347887710819</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1695.32148329711</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.050282208978</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5495,70 +5495,70 @@
         <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397514</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M17" t="n">
-        <v>2730.888184049007</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
-        <v>3856.619167485454</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>4836.798834055759</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055759</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4803.798049006191</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.798049006191</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5662,16 +5662,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5701,19 +5701,19 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243222</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1611.862057829512</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162926</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
         <v>1139.050632477034</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3598.448757555621</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950348</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884174</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874518</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3006880091988</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>697.7389764924237</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>531.8609836939464</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>362.1029799446836</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>185.3959259064399</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T22" t="n">
-        <v>2372.345645370838</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U22" t="n">
-        <v>2093.912644623943</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1806.957136494373</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1534.930732080665</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1289.538977414077</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1062.119306728186</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5999,16 +5999,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181458</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.414238779902</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1945.413737851061</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.336856393764</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>790.336856393764</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>624.4588635952867</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>624.4588635952867</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127512</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405613</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G31" t="n">
         <v>242.1630145804051</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>911.2193705853252</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>745.3413777868479</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>575.5833740375851</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>398.8763199993414</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>233.285045025169</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2627364873778</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740237</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562605</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7415,37 +7415,37 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
@@ -7454,7 +7454,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7658,28 +7658,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906969</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>723.9235564922196</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7822,34 +7822,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471575</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.79963505003</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303135</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759857</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407378</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>613.8410568773345</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>40.34758805803995</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="P2" t="n">
-        <v>613.8410568773343</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>613.8410568773344</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47.47818213854816</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8149,13 +8149,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>298.8346135826466</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.81797281350873</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,10 +8225,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807323</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M17" t="n">
-        <v>732.0625749059132</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>698.8396874157011</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>866.2895820207509</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9656,10 +9656,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662608</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>263.087760665012</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>184.7831561774888</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>49.73195639979787</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>61.36294431725514</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.1445778789303</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.5985112554889</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>268.0111327346222</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.14457787892857</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>185.1957776566207</v>
       </c>
       <c r="U20" t="n">
-        <v>49.7319563997981</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>63.43016517136678</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>195.0325855607193</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>48.17580493063055</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859683717</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.8531101735155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>69.71657238081404</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.159968004824</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.5921776627268</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594760.3938272826</v>
+        <v>594760.3938272827</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594760.3938272828</v>
+        <v>594760.3938272826</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594760.3938272828</v>
+        <v>594760.3938272826</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619859.9620902177</v>
+        <v>619859.9620902176</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619859.9620902176</v>
+        <v>619859.9620902175</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619859.9620902175</v>
+        <v>619859.9620902176</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287656</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
+        <v>328590.5336815898</v>
+      </c>
+      <c r="F2" t="n">
         <v>328590.5336815896</v>
       </c>
-      <c r="F2" t="n">
-        <v>328590.5336815897</v>
-      </c>
       <c r="G2" t="n">
-        <v>328590.5336815897</v>
+        <v>328590.5336815896</v>
       </c>
       <c r="H2" t="n">
-        <v>328590.5336815897</v>
+        <v>328590.5336815896</v>
       </c>
       <c r="I2" t="n">
         <v>342457.4296892789</v>
@@ -26344,7 +26344,7 @@
         <v>342457.4296892789</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.4296892788</v>
       </c>
       <c r="N2" t="n">
         <v>342457.4296892789</v>
@@ -26353,7 +26353,7 @@
         <v>342457.4296892789</v>
       </c>
       <c r="P2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.4296892788</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205712.2565039029</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>17340.54437390664</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>160607.8294856133</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>13814.00856784513</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147828.0890251896</v>
+        <v>147823.6674052306</v>
       </c>
       <c r="C4" t="n">
-        <v>137046.3027641833</v>
+        <v>137041.5797735903</v>
       </c>
       <c r="D4" t="n">
-        <v>137046.3027641833</v>
+        <v>137041.5797735903</v>
       </c>
       <c r="E4" t="n">
-        <v>35963.80624654119</v>
+        <v>35956.74638095687</v>
       </c>
       <c r="F4" t="n">
-        <v>35963.80624654119</v>
+        <v>35956.74638095687</v>
       </c>
       <c r="G4" t="n">
-        <v>35963.80624654119</v>
+        <v>35956.74638095687</v>
       </c>
       <c r="H4" t="n">
-        <v>35963.80624654119</v>
+        <v>35956.74638095687</v>
       </c>
       <c r="I4" t="n">
-        <v>37481.51996663494</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="J4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="K4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="L4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="M4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665551</v>
       </c>
       <c r="N4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="O4" t="n">
-        <v>37481.5199666349</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="P4" t="n">
-        <v>37481.51996663489</v>
+        <v>37474.16216665552</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70949.13625814192</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26479,13 +26479,13 @@
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75993.72385846882</v>
+        <v>-75989.3022385097</v>
       </c>
       <c r="C6" t="n">
-        <v>119896.3862289177</v>
+        <v>119901.1092195106</v>
       </c>
       <c r="D6" t="n">
-        <v>137236.9306028245</v>
+        <v>137241.6535934174</v>
       </c>
       <c r="E6" t="n">
-        <v>57372.30994728656</v>
+        <v>57302.81125807415</v>
       </c>
       <c r="F6" t="n">
-        <v>219107.385157401</v>
+        <v>219037.8864681883</v>
       </c>
       <c r="G6" t="n">
-        <v>219107.385157401</v>
+        <v>219037.8864681885</v>
       </c>
       <c r="H6" t="n">
-        <v>219107.385157401</v>
+        <v>219037.8864681884</v>
       </c>
       <c r="I6" t="n">
-        <v>208892.955484012</v>
+        <v>208877.0889446087</v>
       </c>
       <c r="J6" t="n">
-        <v>66649.84163123817</v>
+        <v>66633.97509183508</v>
       </c>
       <c r="K6" t="n">
-        <v>213443.6625490063</v>
+        <v>213427.7960096029</v>
       </c>
       <c r="L6" t="n">
-        <v>227257.6711168514</v>
+        <v>227241.8045774482</v>
       </c>
       <c r="M6" t="n">
-        <v>92267.72650384801</v>
+        <v>92251.85996444474</v>
       </c>
       <c r="N6" t="n">
-        <v>227257.6711168514</v>
+        <v>227241.8045774482</v>
       </c>
       <c r="O6" t="n">
-        <v>227257.6711168516</v>
+        <v>227241.8045774482</v>
       </c>
       <c r="P6" t="n">
-        <v>227257.6711168515</v>
+        <v>227241.8045774481</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8410568773344</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8410568773344</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>53.67414973052257</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27030,13 +27030,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>613.8410568773344</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>53.67414973052257</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>613.8410568773344</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>53.67414973052257</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>137.1316708627969</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>294.4436604526455</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>117.9924650294015</v>
       </c>
       <c r="U4" t="n">
-        <v>173.0977132642259</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>11.64838566658642</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,7 +27673,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.8683581419007</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.07191583437726</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>83.94149472053158</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>369.8422500230727</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>613.8410568773345</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>40.34758805803995</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="P2" t="n">
-        <v>613.8410568773343</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>613.8410568773344</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47.47818213854816</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34860,7 +34860,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>464.1251183645586</v>
@@ -34869,13 +34869,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>298.8346135826466</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.81797281350873</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,10 +34945,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35112,7 +35112,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807323</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M17" t="n">
-        <v>732.0625749059132</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>698.8396874157011</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>866.2895820207509</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36376,10 +36376,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662608</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37783,13 +37783,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>263.087760665012</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,13 +37950,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38190,7 +38190,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165061</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
